--- a/scripts/ome/gc/measurements.xlsx
+++ b/scripts/ome/gc/measurements.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325759C0-B840-47D0-A4D0-F726E25854DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5159EC0E-8B8F-4181-9ADF-2AB1B38F90DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="23">
   <si>
     <t>MeOH</t>
   </si>
@@ -81,6 +81,15 @@
   <si>
     <t>RRF1</t>
   </si>
+  <si>
+    <t>standart</t>
+  </si>
+  <si>
+    <t>mass standart</t>
+  </si>
+  <si>
+    <t>time correction</t>
+  </si>
 </sst>
 </file>
 
@@ -126,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -134,11 +143,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,6 +222,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,21 +521,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:BC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="19.28515625" style="4" customWidth="1"/>
     <col min="2" max="3" width="13" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -485,326 +566,2381 @@
       <c r="J1" s="1">
         <v>120</v>
       </c>
+      <c r="K1" s="14">
+        <v>136</v>
+      </c>
+      <c r="L1" s="14">
+        <v>136</v>
+      </c>
+      <c r="M1" s="14">
+        <v>136</v>
+      </c>
+      <c r="N1" s="14">
+        <v>141</v>
+      </c>
+      <c r="O1" s="14">
+        <v>141</v>
+      </c>
+      <c r="P1" s="14">
+        <v>141</v>
+      </c>
+      <c r="Q1" s="14">
+        <v>146</v>
+      </c>
+      <c r="R1" s="14">
+        <v>146</v>
+      </c>
+      <c r="S1" s="14">
+        <v>146</v>
+      </c>
+      <c r="T1" s="14">
+        <v>151</v>
+      </c>
+      <c r="U1" s="14">
+        <v>151</v>
+      </c>
+      <c r="V1" s="14">
+        <v>151</v>
+      </c>
+      <c r="W1" s="14">
+        <v>161</v>
+      </c>
+      <c r="X1" s="14">
+        <v>161</v>
+      </c>
+      <c r="Y1" s="14">
+        <v>161</v>
+      </c>
+      <c r="Z1" s="14">
+        <v>176</v>
+      </c>
+      <c r="AA1" s="14">
+        <v>176</v>
+      </c>
+      <c r="AB1" s="14">
+        <v>176</v>
+      </c>
+      <c r="AC1" s="14">
+        <v>191</v>
+      </c>
+      <c r="AD1" s="14">
+        <v>191</v>
+      </c>
+      <c r="AE1" s="14">
+        <v>191</v>
+      </c>
+      <c r="AF1" s="14">
+        <v>206</v>
+      </c>
+      <c r="AG1" s="14">
+        <v>206</v>
+      </c>
+      <c r="AH1" s="14">
+        <v>206</v>
+      </c>
+      <c r="AI1" s="14">
+        <v>221</v>
+      </c>
+      <c r="AJ1" s="14">
+        <v>221</v>
+      </c>
+      <c r="AK1" s="14">
+        <v>221</v>
+      </c>
+      <c r="AL1" s="14">
+        <v>251</v>
+      </c>
+      <c r="AM1" s="14">
+        <v>251</v>
+      </c>
+      <c r="AN1" s="14">
+        <v>251</v>
+      </c>
+      <c r="AO1" s="14">
+        <v>281</v>
+      </c>
+      <c r="AP1" s="14">
+        <v>281</v>
+      </c>
+      <c r="AQ1" s="14">
+        <v>281</v>
+      </c>
+      <c r="AR1" s="14">
+        <v>311</v>
+      </c>
+      <c r="AS1" s="14">
+        <v>311</v>
+      </c>
+      <c r="AT1" s="14">
+        <v>311</v>
+      </c>
+      <c r="AU1" s="14">
+        <v>341</v>
+      </c>
+      <c r="AV1" s="14">
+        <v>341</v>
+      </c>
+      <c r="AW1" s="14">
+        <v>341</v>
+      </c>
+      <c r="AX1" s="14">
+        <v>371</v>
+      </c>
+      <c r="AY1" s="14">
+        <v>371</v>
+      </c>
+      <c r="AZ1" s="14">
+        <v>371</v>
+      </c>
+      <c r="BA1" s="14">
+        <v>431</v>
+      </c>
+      <c r="BB1" s="14">
+        <v>431</v>
+      </c>
+      <c r="BC1" s="14">
+        <v>431</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="C2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="D2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="E2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="F2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="G2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="H2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="I2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="J2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="K2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="L2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="M2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="N2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="O2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="P2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="R2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="S2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="T2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="U2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="V2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="W2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="X2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="Y2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="Z2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AA2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AB2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AC2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AD2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AE2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AF2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AG2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AH2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AI2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AJ2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AK2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AL2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AM2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AN2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AO2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AP2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AQ2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AR2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AS2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AT2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AU2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AV2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AW2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AX2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AY2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="AZ2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="BA2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="BB2" s="11">
+        <v>-131</v>
+      </c>
+      <c r="BC2" s="11">
+        <v>-131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="B3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B4" s="8">
         <v>161</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C4" s="8">
         <v>161</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D4" s="8">
         <v>161</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="1">
         <v>299.39999999999998</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F4" s="1">
         <v>299.39999999999998</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G4" s="1">
         <v>299.39999999999998</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H4" s="1">
         <v>303.60000000000002</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I4" s="1">
         <v>303.60000000000002</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J4" s="1">
         <v>303.60000000000002</v>
       </c>
+      <c r="K4" s="16">
+        <v>168.1</v>
+      </c>
+      <c r="L4" s="16">
+        <v>168.1</v>
+      </c>
+      <c r="M4" s="16">
+        <v>168.1</v>
+      </c>
+      <c r="N4" s="11">
+        <v>109.9</v>
+      </c>
+      <c r="O4" s="11">
+        <v>109.9</v>
+      </c>
+      <c r="P4" s="11">
+        <v>109.9</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>285.89999999999998</v>
+      </c>
+      <c r="R4" s="11">
+        <v>285.89999999999998</v>
+      </c>
+      <c r="S4" s="11">
+        <v>285.89999999999998</v>
+      </c>
+      <c r="T4" s="11">
+        <v>233.8</v>
+      </c>
+      <c r="U4" s="11">
+        <v>233.8</v>
+      </c>
+      <c r="V4" s="11">
+        <v>233.8</v>
+      </c>
+      <c r="W4" s="11">
+        <v>331.4</v>
+      </c>
+      <c r="X4" s="11">
+        <v>331.4</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>331.4</v>
+      </c>
+      <c r="Z4" s="11">
+        <v>380.3</v>
+      </c>
+      <c r="AA4" s="11">
+        <v>380.3</v>
+      </c>
+      <c r="AB4" s="11">
+        <v>380.3</v>
+      </c>
+      <c r="AC4" s="11">
+        <v>232.9</v>
+      </c>
+      <c r="AD4" s="11">
+        <v>232.9</v>
+      </c>
+      <c r="AE4" s="11">
+        <v>232.9</v>
+      </c>
+      <c r="AF4" s="11">
+        <v>235.3</v>
+      </c>
+      <c r="AG4" s="11">
+        <v>235.3</v>
+      </c>
+      <c r="AH4" s="11">
+        <v>235.3</v>
+      </c>
+      <c r="AI4" s="11">
+        <v>310.7</v>
+      </c>
+      <c r="AJ4" s="11">
+        <v>310.7</v>
+      </c>
+      <c r="AK4" s="11">
+        <v>310.7</v>
+      </c>
+      <c r="AL4" s="11">
+        <v>237.5</v>
+      </c>
+      <c r="AM4" s="11">
+        <v>237.5</v>
+      </c>
+      <c r="AN4" s="11">
+        <v>237.5</v>
+      </c>
+      <c r="AO4" s="11">
+        <v>252</v>
+      </c>
+      <c r="AP4" s="11">
+        <v>252</v>
+      </c>
+      <c r="AQ4" s="11">
+        <v>252</v>
+      </c>
+      <c r="AR4" s="11">
+        <v>220.8</v>
+      </c>
+      <c r="AS4" s="11">
+        <v>220.8</v>
+      </c>
+      <c r="AT4" s="11">
+        <v>220.8</v>
+      </c>
+      <c r="AU4" s="11">
+        <v>261.39999999999998</v>
+      </c>
+      <c r="AV4" s="11">
+        <v>261.39999999999998</v>
+      </c>
+      <c r="AW4" s="11">
+        <v>261.39999999999998</v>
+      </c>
+      <c r="AX4" s="11">
+        <v>239.4</v>
+      </c>
+      <c r="AY4" s="11">
+        <v>239.4</v>
+      </c>
+      <c r="AZ4" s="11">
+        <v>239.4</v>
+      </c>
+      <c r="BA4" s="11">
+        <v>231.8</v>
+      </c>
+      <c r="BB4" s="11">
+        <v>231.8</v>
+      </c>
+      <c r="BC4" s="11">
+        <v>231.8</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="F6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="H6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="I6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="J6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="K6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="L6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="M6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="N6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="O6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="P6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="R6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="S6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="T6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="U6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="V6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="W6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="X6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AJ6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AK6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AL6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AN6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AO6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AQ6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AR6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AS6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AU6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AV6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AW6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AX6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AY6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="AZ6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="BA6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="BB6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+      <c r="BC6" s="9">
+        <v>3.7475000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="V7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="W7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="X7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC7" s="15" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="10">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0</v>
+      </c>
+      <c r="R8" s="10">
+        <v>0</v>
+      </c>
+      <c r="S8" s="10">
+        <v>0</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0</v>
+      </c>
+      <c r="U8" s="10">
+        <v>0</v>
+      </c>
+      <c r="V8" s="10">
+        <v>0</v>
+      </c>
+      <c r="W8" s="9">
+        <v>0</v>
+      </c>
+      <c r="X8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="10">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="10">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>0</v>
+      </c>
+      <c r="R9" s="10">
+        <v>0</v>
+      </c>
+      <c r="S9" s="10">
+        <v>0</v>
+      </c>
+      <c r="T9" s="10">
+        <v>0</v>
+      </c>
+      <c r="U9" s="10">
+        <v>0</v>
+      </c>
+      <c r="V9" s="10">
+        <v>0</v>
+      </c>
+      <c r="W9" s="10">
+        <v>0</v>
+      </c>
+      <c r="X9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="10">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="10">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="10">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B10" s="1">
         <v>342511</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C10" s="1">
         <v>346482</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D10" s="2">
         <v>331999</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E10" s="1">
         <v>593720</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F10" s="1">
         <v>593720</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G10" s="2">
         <v>587218</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H10" s="1">
         <v>585631</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I10" s="1">
         <v>579781</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J10" s="1">
         <v>593900</v>
       </c>
+      <c r="K10" s="9">
+        <v>351471</v>
+      </c>
+      <c r="L10" s="9">
+        <v>355695</v>
+      </c>
+      <c r="M10" s="9">
+        <v>368397</v>
+      </c>
+      <c r="N10" s="9">
+        <v>241264</v>
+      </c>
+      <c r="O10" s="9">
+        <v>239201</v>
+      </c>
+      <c r="P10" s="9">
+        <v>236831</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>495227</v>
+      </c>
+      <c r="R10" s="9">
+        <v>502702</v>
+      </c>
+      <c r="S10" s="9">
+        <v>503263</v>
+      </c>
+      <c r="T10" s="9">
+        <v>369871</v>
+      </c>
+      <c r="U10" s="9">
+        <v>364279</v>
+      </c>
+      <c r="V10" s="9">
+        <v>367485</v>
+      </c>
+      <c r="W10" s="9">
+        <v>331954</v>
+      </c>
+      <c r="X10" s="9">
+        <v>330235</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>333352</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>156974</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>155701</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>154228</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>43125</v>
+      </c>
+      <c r="AD10" s="9">
+        <v>42340</v>
+      </c>
+      <c r="AE10" s="9">
+        <v>42347</v>
+      </c>
+      <c r="AF10" s="9">
+        <v>23791</v>
+      </c>
+      <c r="AG10" s="9">
+        <v>22986</v>
+      </c>
+      <c r="AH10" s="9">
+        <v>22965</v>
+      </c>
+      <c r="AI10" s="9">
+        <v>21478</v>
+      </c>
+      <c r="AJ10" s="9">
+        <v>22209</v>
+      </c>
+      <c r="AK10" s="9">
+        <v>21520</v>
+      </c>
+      <c r="AL10" s="9">
+        <v>16245</v>
+      </c>
+      <c r="AM10" s="9">
+        <v>16189</v>
+      </c>
+      <c r="AN10" s="9">
+        <v>16242</v>
+      </c>
+      <c r="AO10" s="9">
+        <v>16746</v>
+      </c>
+      <c r="AP10" s="9">
+        <v>17009</v>
+      </c>
+      <c r="AQ10" s="9">
+        <v>16562</v>
+      </c>
+      <c r="AR10" s="9">
+        <v>15184</v>
+      </c>
+      <c r="AS10" s="9">
+        <v>15184</v>
+      </c>
+      <c r="AT10" s="9">
+        <v>14708</v>
+      </c>
+      <c r="AU10" s="9">
+        <v>17755</v>
+      </c>
+      <c r="AV10" s="9">
+        <v>17394</v>
+      </c>
+      <c r="AW10" s="9">
+        <v>17307</v>
+      </c>
+      <c r="AX10" s="9">
+        <v>16825</v>
+      </c>
+      <c r="AY10" s="9">
+        <v>16132</v>
+      </c>
+      <c r="AZ10" s="9">
+        <v>16127</v>
+      </c>
+      <c r="BA10" s="9">
+        <v>16127</v>
+      </c>
+      <c r="BB10" s="9">
+        <v>15836</v>
+      </c>
+      <c r="BC10" s="9">
+        <v>15927</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B11" s="1">
         <v>4986946</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C11" s="2">
         <v>4895261</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D11" s="2">
         <v>4857911</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E11" s="1">
         <v>8320188</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F11" s="2">
         <v>8320188</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G11" s="2">
         <v>8340558</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H11" s="1">
         <v>8205043</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I11" s="1">
         <v>8257501</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J11" s="1">
         <v>8189861</v>
       </c>
+      <c r="K11" s="9">
+        <v>5130117</v>
+      </c>
+      <c r="L11" s="9">
+        <v>5161180</v>
+      </c>
+      <c r="M11" s="9">
+        <v>5194502</v>
+      </c>
+      <c r="N11" s="9">
+        <v>3568458</v>
+      </c>
+      <c r="O11" s="9">
+        <v>3500578</v>
+      </c>
+      <c r="P11" s="9">
+        <v>3496626</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>7327684</v>
+      </c>
+      <c r="R11" s="9">
+        <v>7294121</v>
+      </c>
+      <c r="S11" s="9">
+        <v>7334119</v>
+      </c>
+      <c r="T11" s="9">
+        <v>5996020</v>
+      </c>
+      <c r="U11" s="9">
+        <v>5902679</v>
+      </c>
+      <c r="V11" s="9">
+        <v>5882251</v>
+      </c>
+      <c r="W11" s="9">
+        <v>6852932</v>
+      </c>
+      <c r="X11" s="9">
+        <v>6752265</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>6782072</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>6457984</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>6396856</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>6365569</v>
+      </c>
+      <c r="AC11" s="9">
+        <v>4154164</v>
+      </c>
+      <c r="AD11" s="9">
+        <v>4079383</v>
+      </c>
+      <c r="AE11" s="9">
+        <v>4099402</v>
+      </c>
+      <c r="AF11" s="9">
+        <v>4164184</v>
+      </c>
+      <c r="AG11" s="9">
+        <v>4062961</v>
+      </c>
+      <c r="AH11" s="9">
+        <v>4019951</v>
+      </c>
+      <c r="AI11" s="9">
+        <v>4875463</v>
+      </c>
+      <c r="AJ11" s="9">
+        <v>5041140</v>
+      </c>
+      <c r="AK11" s="9">
+        <v>4947108</v>
+      </c>
+      <c r="AL11" s="9">
+        <v>4104711</v>
+      </c>
+      <c r="AM11" s="9">
+        <v>4047803</v>
+      </c>
+      <c r="AN11" s="9">
+        <v>4058573</v>
+      </c>
+      <c r="AO11" s="9">
+        <v>4299823</v>
+      </c>
+      <c r="AP11" s="9">
+        <v>4263465</v>
+      </c>
+      <c r="AQ11" s="9">
+        <v>4216889</v>
+      </c>
+      <c r="AR11" s="9">
+        <v>3890875</v>
+      </c>
+      <c r="AS11" s="9">
+        <v>3890875</v>
+      </c>
+      <c r="AT11" s="9">
+        <v>3755790</v>
+      </c>
+      <c r="AU11" s="9">
+        <v>4502007</v>
+      </c>
+      <c r="AV11" s="9">
+        <v>4405449</v>
+      </c>
+      <c r="AW11" s="9">
+        <v>4426171</v>
+      </c>
+      <c r="AX11" s="9">
+        <v>4263180</v>
+      </c>
+      <c r="AY11" s="9">
+        <v>4132094</v>
+      </c>
+      <c r="AZ11" s="9">
+        <v>4130608</v>
+      </c>
+      <c r="BA11" s="9">
+        <v>4130608</v>
+      </c>
+      <c r="BB11" s="9">
+        <v>4049666</v>
+      </c>
+      <c r="BC11" s="9">
+        <v>4049463</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="2"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9">
+        <v>66999</v>
+      </c>
+      <c r="O12" s="9">
+        <v>65911</v>
+      </c>
+      <c r="P12" s="9">
+        <v>66303</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>589587</v>
+      </c>
+      <c r="R12" s="9">
+        <v>594970</v>
+      </c>
+      <c r="S12" s="9">
+        <v>595767</v>
+      </c>
+      <c r="T12" s="9">
+        <v>954724</v>
+      </c>
+      <c r="U12" s="9">
+        <v>938222</v>
+      </c>
+      <c r="V12" s="9">
+        <v>941473</v>
+      </c>
+      <c r="W12" s="9">
+        <v>1995315</v>
+      </c>
+      <c r="X12" s="9">
+        <v>1979028</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>1997071</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>2845092</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>2823265</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>2800104</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>2034078</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>1995413</v>
+      </c>
+      <c r="AE12" s="9">
+        <v>1999812</v>
+      </c>
+      <c r="AF12" s="9">
+        <v>2072923</v>
+      </c>
+      <c r="AG12" s="9">
+        <v>2008200</v>
+      </c>
+      <c r="AH12" s="9">
+        <v>2005488</v>
+      </c>
+      <c r="AI12" s="9">
+        <v>2443480</v>
+      </c>
+      <c r="AJ12" s="9">
+        <v>2520440</v>
+      </c>
+      <c r="AK12" s="9">
+        <v>2452698</v>
+      </c>
+      <c r="AL12" s="9">
+        <v>2057543</v>
+      </c>
+      <c r="AM12" s="9">
+        <v>2058500</v>
+      </c>
+      <c r="AN12" s="9">
+        <v>2051116</v>
+      </c>
+      <c r="AO12" s="9">
+        <v>2147992</v>
+      </c>
+      <c r="AP12" s="9">
+        <v>2190721</v>
+      </c>
+      <c r="AQ12" s="9">
+        <v>2122023</v>
+      </c>
+      <c r="AR12" s="9">
+        <v>1953402</v>
+      </c>
+      <c r="AS12" s="9">
+        <v>1953402</v>
+      </c>
+      <c r="AT12" s="9">
+        <v>1891065</v>
+      </c>
+      <c r="AU12" s="9">
+        <v>2278132</v>
+      </c>
+      <c r="AV12" s="9">
+        <v>2232133</v>
+      </c>
+      <c r="AW12" s="9">
+        <v>2227273</v>
+      </c>
+      <c r="AX12" s="9">
+        <v>2166863</v>
+      </c>
+      <c r="AY12" s="9">
+        <v>2072717</v>
+      </c>
+      <c r="AZ12" s="9">
+        <v>2072651</v>
+      </c>
+      <c r="BA12" s="9">
+        <v>2072651</v>
+      </c>
+      <c r="BB12" s="9">
+        <v>2035011</v>
+      </c>
+      <c r="BC12" s="9">
+        <v>2043833</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9">
+        <v>23434</v>
+      </c>
+      <c r="O13" s="9">
+        <v>23231</v>
+      </c>
+      <c r="P13" s="9">
+        <v>22796</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>88876</v>
+      </c>
+      <c r="R13" s="9">
+        <v>90514</v>
+      </c>
+      <c r="S13" s="9">
+        <v>89507</v>
+      </c>
+      <c r="T13" s="9">
+        <v>194809</v>
+      </c>
+      <c r="U13" s="9">
+        <v>191406</v>
+      </c>
+      <c r="V13" s="9">
+        <v>192543</v>
+      </c>
+      <c r="W13" s="9">
+        <v>597989</v>
+      </c>
+      <c r="X13" s="9">
+        <v>593592</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>601824</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>1224339</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>1212160</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>1203879</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>979799</v>
+      </c>
+      <c r="AD13" s="9">
+        <v>960396</v>
+      </c>
+      <c r="AE13" s="9">
+        <v>960849</v>
+      </c>
+      <c r="AF13" s="9">
+        <v>1024213</v>
+      </c>
+      <c r="AG13" s="9">
+        <v>989695</v>
+      </c>
+      <c r="AH13" s="9">
+        <v>991451</v>
+      </c>
+      <c r="AI13" s="9">
+        <v>1213941</v>
+      </c>
+      <c r="AJ13" s="9">
+        <v>1253650</v>
+      </c>
+      <c r="AK13" s="9">
+        <v>1212644</v>
+      </c>
+      <c r="AL13" s="9">
+        <v>1020036</v>
+      </c>
+      <c r="AM13" s="9">
+        <v>1012032</v>
+      </c>
+      <c r="AN13" s="9">
+        <v>1022577</v>
+      </c>
+      <c r="AO13" s="9">
+        <v>1068498</v>
+      </c>
+      <c r="AP13" s="9">
+        <v>1086813</v>
+      </c>
+      <c r="AQ13" s="9">
+        <v>1056537</v>
+      </c>
+      <c r="AR13" s="9">
+        <v>976577</v>
+      </c>
+      <c r="AS13" s="9">
+        <v>976577</v>
+      </c>
+      <c r="AT13" s="9">
+        <v>945087</v>
+      </c>
+      <c r="AU13" s="9">
+        <v>1132332</v>
+      </c>
+      <c r="AV13" s="9">
+        <v>1111337</v>
+      </c>
+      <c r="AW13" s="9">
+        <v>1100807</v>
+      </c>
+      <c r="AX13" s="9">
+        <v>1069837</v>
+      </c>
+      <c r="AY13" s="9">
+        <v>1030912</v>
+      </c>
+      <c r="AZ13" s="9">
+        <v>1031927</v>
+      </c>
+      <c r="BA13" s="9">
+        <v>1031927</v>
+      </c>
+      <c r="BB13" s="9">
+        <v>1007305</v>
+      </c>
+      <c r="BC13" s="9">
+        <v>1021771</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9">
+        <v>3186</v>
+      </c>
+      <c r="O14" s="9">
+        <v>3179</v>
+      </c>
+      <c r="P14" s="9">
+        <v>3197</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>29719</v>
+      </c>
+      <c r="R14" s="9">
+        <v>30263</v>
+      </c>
+      <c r="S14" s="9">
+        <v>30235</v>
+      </c>
+      <c r="T14" s="9">
+        <v>61041</v>
+      </c>
+      <c r="U14" s="9">
+        <v>60020</v>
+      </c>
+      <c r="V14" s="9">
+        <v>60295</v>
+      </c>
+      <c r="W14" s="9">
+        <v>201358</v>
+      </c>
+      <c r="X14" s="9">
+        <v>199125</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>201779</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>495928</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>489915</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>486968</v>
+      </c>
+      <c r="AC14" s="9">
+        <v>425952</v>
+      </c>
+      <c r="AD14" s="9">
+        <v>417133</v>
+      </c>
+      <c r="AE14" s="9">
+        <v>417153</v>
+      </c>
+      <c r="AF14" s="9">
+        <v>455516</v>
+      </c>
+      <c r="AG14" s="9">
+        <v>440038</v>
+      </c>
+      <c r="AH14" s="9">
+        <v>441019</v>
+      </c>
+      <c r="AI14" s="9">
+        <v>544622</v>
+      </c>
+      <c r="AJ14" s="9">
+        <v>563681</v>
+      </c>
+      <c r="AK14" s="9">
+        <v>545570</v>
+      </c>
+      <c r="AL14" s="9">
+        <v>456737</v>
+      </c>
+      <c r="AM14" s="9">
+        <v>452660</v>
+      </c>
+      <c r="AN14" s="9">
+        <v>458979</v>
+      </c>
+      <c r="AO14" s="9">
+        <v>480591</v>
+      </c>
+      <c r="AP14" s="9">
+        <v>488442</v>
+      </c>
+      <c r="AQ14" s="9">
+        <v>475040</v>
+      </c>
+      <c r="AR14" s="9">
+        <v>439463</v>
+      </c>
+      <c r="AS14" s="9">
+        <v>439463</v>
+      </c>
+      <c r="AT14" s="9">
+        <v>423659</v>
+      </c>
+      <c r="AU14" s="9">
+        <v>508330</v>
+      </c>
+      <c r="AV14" s="9">
+        <v>499560</v>
+      </c>
+      <c r="AW14" s="9">
+        <v>492642</v>
+      </c>
+      <c r="AX14" s="9">
+        <v>481648</v>
+      </c>
+      <c r="AY14" s="9">
+        <v>463089</v>
+      </c>
+      <c r="AZ14" s="9">
+        <v>464534</v>
+      </c>
+      <c r="BA14" s="9">
+        <v>464534</v>
+      </c>
+      <c r="BB14" s="9">
+        <v>451433</v>
+      </c>
+      <c r="BC14" s="9">
+        <v>459221</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="1"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9">
+        <v>3774</v>
+      </c>
+      <c r="R15" s="10">
+        <v>3906</v>
+      </c>
+      <c r="S15" s="9">
+        <v>3875</v>
+      </c>
+      <c r="T15" s="9">
+        <v>11692</v>
+      </c>
+      <c r="U15" s="10">
+        <v>11545</v>
+      </c>
+      <c r="V15" s="9">
+        <v>11622</v>
+      </c>
+      <c r="W15" s="9">
+        <v>54021</v>
+      </c>
+      <c r="X15" s="10">
+        <v>53828</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>54579</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>182074</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>178741</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>178192</v>
+      </c>
+      <c r="AC15" s="9">
+        <v>175514</v>
+      </c>
+      <c r="AD15" s="10">
+        <v>171712</v>
+      </c>
+      <c r="AE15" s="9">
+        <v>171923</v>
+      </c>
+      <c r="AF15" s="9">
+        <v>194669</v>
+      </c>
+      <c r="AG15" s="10">
+        <v>187060</v>
+      </c>
+      <c r="AH15" s="9">
+        <v>188070</v>
+      </c>
+      <c r="AI15" s="9">
+        <v>234098</v>
+      </c>
+      <c r="AJ15" s="10">
+        <v>242659</v>
+      </c>
+      <c r="AK15" s="9">
+        <v>234086</v>
+      </c>
+      <c r="AL15" s="9">
+        <v>197688</v>
+      </c>
+      <c r="AM15" s="10">
+        <v>196720</v>
+      </c>
+      <c r="AN15" s="9">
+        <v>197991</v>
+      </c>
+      <c r="AO15" s="9">
+        <v>206417</v>
+      </c>
+      <c r="AP15" s="10">
+        <v>212901</v>
+      </c>
+      <c r="AQ15" s="9">
+        <v>204272</v>
+      </c>
+      <c r="AR15" s="9">
+        <v>189423</v>
+      </c>
+      <c r="AS15" s="10">
+        <v>189423</v>
+      </c>
+      <c r="AT15" s="9">
+        <v>182711</v>
+      </c>
+      <c r="AU15" s="9">
+        <v>218501</v>
+      </c>
+      <c r="AV15" s="10">
+        <v>214592</v>
+      </c>
+      <c r="AW15" s="9">
+        <v>211296</v>
+      </c>
+      <c r="AX15" s="9">
+        <v>209383</v>
+      </c>
+      <c r="AY15" s="10">
+        <v>198970</v>
+      </c>
+      <c r="AZ15" s="9">
+        <v>199789</v>
+      </c>
+      <c r="BA15" s="9">
+        <v>199789</v>
+      </c>
+      <c r="BB15" s="10">
+        <v>194230</v>
+      </c>
+      <c r="BC15" s="9">
+        <v>197653</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -815,10 +2951,127 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9">
+        <v>2643</v>
+      </c>
+      <c r="U16" s="9">
+        <v>2645</v>
+      </c>
+      <c r="V16" s="9">
+        <v>2613</v>
+      </c>
+      <c r="W16" s="9">
+        <v>16106</v>
+      </c>
+      <c r="X16" s="9">
+        <v>16194</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>16378</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>65037</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>63606</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>63336</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>69830</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>68314</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>68553</v>
+      </c>
+      <c r="AF16" s="9">
+        <v>79943</v>
+      </c>
+      <c r="AG16" s="9">
+        <v>76831</v>
+      </c>
+      <c r="AH16" s="9">
+        <v>77402</v>
+      </c>
+      <c r="AI16" s="9">
+        <v>96201</v>
+      </c>
+      <c r="AJ16" s="9">
+        <v>100227</v>
+      </c>
+      <c r="AK16" s="9">
+        <v>96047</v>
+      </c>
+      <c r="AL16" s="9">
+        <v>81370</v>
+      </c>
+      <c r="AM16" s="9">
+        <v>82479</v>
+      </c>
+      <c r="AN16" s="9">
+        <v>81965</v>
+      </c>
+      <c r="AO16" s="9">
+        <v>85124</v>
+      </c>
+      <c r="AP16" s="9">
+        <v>88850</v>
+      </c>
+      <c r="AQ16" s="9">
+        <v>84300</v>
+      </c>
+      <c r="AR16" s="9">
+        <v>78144</v>
+      </c>
+      <c r="AS16" s="9">
+        <v>78144</v>
+      </c>
+      <c r="AT16" s="9">
+        <v>75741</v>
+      </c>
+      <c r="AU16" s="9">
+        <v>90063</v>
+      </c>
+      <c r="AV16" s="9">
+        <v>88554</v>
+      </c>
+      <c r="AW16" s="9">
+        <v>86795</v>
+      </c>
+      <c r="AX16" s="9">
+        <v>87328</v>
+      </c>
+      <c r="AY16" s="9">
+        <v>81938</v>
+      </c>
+      <c r="AZ16" s="9">
+        <v>82020</v>
+      </c>
+      <c r="BA16" s="9">
+        <v>82020</v>
+      </c>
+      <c r="BB16" s="9">
+        <v>79835</v>
+      </c>
+      <c r="BC16" s="9">
+        <v>81440</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -829,37 +3082,634 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9">
+        <v>4238</v>
+      </c>
+      <c r="X17" s="9">
+        <v>4247</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>4334</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>21109</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>20622</v>
+      </c>
+      <c r="AB17" s="9">
+        <v>20387</v>
+      </c>
+      <c r="AC17" s="9">
+        <v>25263</v>
+      </c>
+      <c r="AD17" s="9">
+        <v>24727</v>
+      </c>
+      <c r="AE17" s="9">
+        <v>24698</v>
+      </c>
+      <c r="AF17" s="9">
+        <v>30075</v>
+      </c>
+      <c r="AG17" s="9">
+        <v>28658</v>
+      </c>
+      <c r="AH17" s="9">
+        <v>28886</v>
+      </c>
+      <c r="AI17" s="9">
+        <v>35985</v>
+      </c>
+      <c r="AJ17" s="9">
+        <v>37485</v>
+      </c>
+      <c r="AK17" s="9">
+        <v>35902</v>
+      </c>
+      <c r="AL17" s="9">
+        <v>30599</v>
+      </c>
+      <c r="AM17" s="9">
+        <v>31827</v>
+      </c>
+      <c r="AN17" s="9">
+        <v>30820</v>
+      </c>
+      <c r="AO17" s="9">
+        <v>31567</v>
+      </c>
+      <c r="AP17" s="9">
+        <v>34020</v>
+      </c>
+      <c r="AQ17" s="9">
+        <v>31450</v>
+      </c>
+      <c r="AR17" s="9">
+        <v>29161</v>
+      </c>
+      <c r="AS17" s="9">
+        <v>29161</v>
+      </c>
+      <c r="AT17" s="9">
+        <v>28494</v>
+      </c>
+      <c r="AU17" s="9">
+        <v>33524</v>
+      </c>
+      <c r="AV17" s="9">
+        <v>33064</v>
+      </c>
+      <c r="AW17" s="9">
+        <v>32250</v>
+      </c>
+      <c r="AX17" s="9">
+        <v>33065</v>
+      </c>
+      <c r="AY17" s="9">
+        <v>30485</v>
+      </c>
+      <c r="AZ17" s="9">
+        <v>30419</v>
+      </c>
+      <c r="BA17" s="9">
+        <v>30419</v>
+      </c>
+      <c r="BB17" s="9">
+        <v>29648</v>
+      </c>
+      <c r="BC17" s="9">
+        <v>30137</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9">
+        <v>1102</v>
+      </c>
+      <c r="X18" s="9">
+        <v>1142</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>1134</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>6748</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>6457</v>
+      </c>
+      <c r="AB18" s="9">
+        <v>6412</v>
+      </c>
+      <c r="AC18" s="9">
+        <v>8836</v>
+      </c>
+      <c r="AD18" s="9">
+        <v>8666</v>
+      </c>
+      <c r="AE18" s="9">
+        <v>8615</v>
+      </c>
+      <c r="AF18" s="9">
+        <v>10846</v>
+      </c>
+      <c r="AG18" s="9">
+        <v>10221</v>
+      </c>
+      <c r="AH18" s="9">
+        <v>10371</v>
+      </c>
+      <c r="AI18" s="9">
+        <v>12836</v>
+      </c>
+      <c r="AJ18" s="9">
+        <v>13436</v>
+      </c>
+      <c r="AK18" s="9">
+        <v>12806</v>
+      </c>
+      <c r="AL18" s="9">
+        <v>11064</v>
+      </c>
+      <c r="AM18" s="9">
+        <v>11822</v>
+      </c>
+      <c r="AN18" s="9">
+        <v>11046</v>
+      </c>
+      <c r="AO18" s="9">
+        <v>11266</v>
+      </c>
+      <c r="AP18" s="9">
+        <v>12492</v>
+      </c>
+      <c r="AQ18" s="9">
+        <v>11204</v>
+      </c>
+      <c r="AR18" s="9">
+        <v>10406</v>
+      </c>
+      <c r="AS18" s="9">
+        <v>10406</v>
+      </c>
+      <c r="AT18" s="9">
+        <v>10179</v>
+      </c>
+      <c r="AU18" s="9">
+        <v>11959</v>
+      </c>
+      <c r="AV18" s="9">
+        <v>11813</v>
+      </c>
+      <c r="AW18" s="9">
+        <v>11366</v>
+      </c>
+      <c r="AX18" s="9">
+        <v>12163</v>
+      </c>
+      <c r="AY18" s="9">
+        <v>10816</v>
+      </c>
+      <c r="AZ18" s="9">
+        <v>10752</v>
+      </c>
+      <c r="BA18" s="9">
+        <v>10752</v>
+      </c>
+      <c r="BB18" s="9">
+        <v>10478</v>
+      </c>
+      <c r="BC18" s="9">
+        <v>10698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9">
+        <v>1956</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>1827</v>
+      </c>
+      <c r="AB19" s="9">
+        <v>1807</v>
+      </c>
+      <c r="AC19" s="9">
+        <v>2824</v>
+      </c>
+      <c r="AD19" s="9">
+        <v>2675</v>
+      </c>
+      <c r="AE19" s="9">
+        <v>2680</v>
+      </c>
+      <c r="AF19" s="9">
+        <v>3589</v>
+      </c>
+      <c r="AG19" s="9">
+        <v>3299</v>
+      </c>
+      <c r="AH19" s="9">
+        <v>3324</v>
+      </c>
+      <c r="AI19" s="9">
+        <v>4202</v>
+      </c>
+      <c r="AJ19" s="9">
+        <v>4465</v>
+      </c>
+      <c r="AK19" s="9">
+        <v>4192</v>
+      </c>
+      <c r="AL19" s="9">
+        <v>3735</v>
+      </c>
+      <c r="AM19" s="9">
+        <v>4093</v>
+      </c>
+      <c r="AN19" s="9">
+        <v>3566</v>
+      </c>
+      <c r="AO19" s="9">
+        <v>3649</v>
+      </c>
+      <c r="AP19" s="9">
+        <v>4244</v>
+      </c>
+      <c r="AQ19" s="9">
+        <v>3630</v>
+      </c>
+      <c r="AR19" s="9">
+        <v>3445</v>
+      </c>
+      <c r="AS19" s="9">
+        <v>3445</v>
+      </c>
+      <c r="AT19" s="9">
+        <v>3289</v>
+      </c>
+      <c r="AU19" s="9">
+        <v>3951</v>
+      </c>
+      <c r="AV19" s="9">
+        <v>3804</v>
+      </c>
+      <c r="AW19" s="9">
+        <v>3683</v>
+      </c>
+      <c r="AX19" s="9">
+        <v>4157</v>
+      </c>
+      <c r="AY19" s="9">
+        <v>3571</v>
+      </c>
+      <c r="AZ19" s="9">
+        <v>3456</v>
+      </c>
+      <c r="BA19" s="9">
+        <v>3456</v>
+      </c>
+      <c r="BB19" s="9">
+        <v>3306</v>
+      </c>
+      <c r="BC19" s="9">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9">
+        <v>1162</v>
+      </c>
+      <c r="AG20" s="9">
+        <v>1061</v>
+      </c>
+      <c r="AH20" s="9">
+        <v>1110</v>
+      </c>
+      <c r="AI20" s="9">
+        <v>1438</v>
+      </c>
+      <c r="AJ20" s="9">
+        <v>1494</v>
+      </c>
+      <c r="AK20" s="9">
+        <v>1469</v>
+      </c>
+      <c r="AL20" s="9">
+        <v>1202</v>
+      </c>
+      <c r="AM20" s="9">
+        <v>1526</v>
+      </c>
+      <c r="AN20" s="9">
+        <v>1208</v>
+      </c>
+      <c r="AO20" s="9">
+        <v>1213</v>
+      </c>
+      <c r="AP20" s="9">
+        <v>1540</v>
+      </c>
+      <c r="AQ20" s="9">
+        <v>1229</v>
+      </c>
+      <c r="AR20" s="9">
+        <v>1111</v>
+      </c>
+      <c r="AS20" s="9">
+        <v>1111</v>
+      </c>
+      <c r="AT20" s="9">
+        <v>1119</v>
+      </c>
+      <c r="AU20" s="9">
+        <v>1265</v>
+      </c>
+      <c r="AV20" s="9">
+        <v>1319</v>
+      </c>
+      <c r="AW20" s="9">
+        <v>1230</v>
+      </c>
+      <c r="AX20" s="9">
+        <v>1426</v>
+      </c>
+      <c r="AY20" s="9">
+        <v>1183</v>
+      </c>
+      <c r="AZ20" s="9">
+        <v>1181</v>
+      </c>
+      <c r="BA20" s="9">
+        <v>1181</v>
+      </c>
+      <c r="BB20" s="9">
+        <v>1101</v>
+      </c>
+      <c r="BC20" s="9">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1">
         <v>477835</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C21" s="2">
         <v>482233</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D21" s="2">
         <v>469290</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E21" s="1">
         <v>434736</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F21" s="2">
         <v>434736</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G21" s="2">
         <v>421958</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H21" s="1">
         <v>437408</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I21" s="1">
         <v>430059</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J21" s="1">
         <v>434408</v>
+      </c>
+      <c r="K21" s="11">
+        <v>476169</v>
+      </c>
+      <c r="L21" s="11">
+        <v>483787</v>
+      </c>
+      <c r="M21" s="11">
+        <v>491657</v>
+      </c>
+      <c r="N21" s="12">
+        <v>514268</v>
+      </c>
+      <c r="O21" s="12">
+        <v>509563</v>
+      </c>
+      <c r="P21" s="13">
+        <v>508370</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>439167</v>
+      </c>
+      <c r="R21" s="11">
+        <v>448273</v>
+      </c>
+      <c r="S21" s="11">
+        <v>449008</v>
+      </c>
+      <c r="T21" s="11">
+        <v>469221</v>
+      </c>
+      <c r="U21" s="11">
+        <v>461816</v>
+      </c>
+      <c r="V21" s="11">
+        <v>463183</v>
+      </c>
+      <c r="W21" s="11">
+        <v>434853</v>
+      </c>
+      <c r="X21" s="11">
+        <v>431023</v>
+      </c>
+      <c r="Y21" s="11">
+        <v>436962</v>
+      </c>
+      <c r="Z21" s="11">
+        <v>426419</v>
+      </c>
+      <c r="AA21" s="11">
+        <v>421527</v>
+      </c>
+      <c r="AB21" s="11">
+        <v>418761</v>
+      </c>
+      <c r="AC21" s="11">
+        <v>479950</v>
+      </c>
+      <c r="AD21" s="11">
+        <v>469521</v>
+      </c>
+      <c r="AE21" s="11">
+        <v>469676</v>
+      </c>
+      <c r="AF21" s="11">
+        <v>478836</v>
+      </c>
+      <c r="AG21" s="11">
+        <v>462748</v>
+      </c>
+      <c r="AH21" s="11">
+        <v>464000</v>
+      </c>
+      <c r="AI21" s="11">
+        <v>435276</v>
+      </c>
+      <c r="AJ21" s="11">
+        <v>450271</v>
+      </c>
+      <c r="AK21" s="11">
+        <v>433732</v>
+      </c>
+      <c r="AL21" s="12">
+        <v>464389</v>
+      </c>
+      <c r="AM21" s="12">
+        <v>459197</v>
+      </c>
+      <c r="AN21" s="13">
+        <v>467683</v>
+      </c>
+      <c r="AO21" s="11">
+        <v>456880</v>
+      </c>
+      <c r="AP21" s="11">
+        <v>463117</v>
+      </c>
+      <c r="AQ21" s="11">
+        <v>451443</v>
+      </c>
+      <c r="AR21" s="11">
+        <v>494086</v>
+      </c>
+      <c r="AS21" s="11">
+        <v>494086</v>
+      </c>
+      <c r="AT21" s="11">
+        <v>476185</v>
+      </c>
+      <c r="AU21" s="11">
+        <v>468257</v>
+      </c>
+      <c r="AV21" s="11">
+        <v>460080</v>
+      </c>
+      <c r="AW21" s="11">
+        <v>452794</v>
+      </c>
+      <c r="AX21" s="11">
+        <v>483638</v>
+      </c>
+      <c r="AY21" s="11">
+        <v>465986</v>
+      </c>
+      <c r="AZ21" s="11">
+        <v>468025</v>
+      </c>
+      <c r="BA21" s="11">
+        <v>468025</v>
+      </c>
+      <c r="BB21" s="11">
+        <v>468392</v>
+      </c>
+      <c r="BC21" s="11">
+        <v>477062</v>
       </c>
     </row>
   </sheetData>
